--- a/doc/接口文档/权限接口.xlsx
+++ b/doc/接口文档/权限接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20505" windowHeight="9195"/>
+    <workbookView windowWidth="22515" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,12 +175,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,12 +206,120 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,122 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +346,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,199 +379,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,45 +552,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,11 +575,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,17 +644,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,152 +657,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,28 +812,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="40" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:O67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1418,9 +1378,9 @@
       <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
@@ -1440,11 +1400,11 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -1525,8 +1485,8 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18">
@@ -1604,11 +1564,11 @@
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
@@ -1689,8 +1649,8 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18">
@@ -1768,11 +1728,11 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -2219,8 +2179,8 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="8"/>
     </row>
     <row r="69" spans="1:18">

--- a/doc/接口文档/权限接口.xlsx
+++ b/doc/接口文档/权限接口.xlsx
@@ -211,7 +211,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,85 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,14 +317,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -333,8 +324,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,6 +397,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,13 +451,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,43 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,73 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,22 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,41 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +617,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,130 +675,130 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56:O56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
